--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y-tabata\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B32A6C36-CED5-4639-A57A-50EA93980C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634D4224-FF49-4650-9182-A439FCE6761F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1410" windowWidth="29040" windowHeight="15720" xr2:uid="{FCC51063-9095-4F4C-BA28-3916E227BA99}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="テスト実施について" sheetId="1" r:id="rId1"/>
+    <sheet name="テストファイル置き場について" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,420 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+  <si>
+    <t>テストファイルの置き方について</t>
+  </si>
+  <si>
+    <t>以下は例ですが、↓のような置き方になると思います。</t>
+  </si>
+  <si>
+    <t>src/</t>
+  </si>
+  <si>
+    <t>├── components/</t>
+  </si>
+  <si>
+    <t>│   ├── atoms/</t>
+  </si>
+  <si>
+    <t>│   │   ├── Button/</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Button.tsx</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Button.test.tsx （Buttonコンポーネントの単体テスト）</t>
+  </si>
+  <si>
+    <t>│   │   │   └── Button.module.css</t>
+  </si>
+  <si>
+    <t>│   │   └── TextArea/</t>
+  </si>
+  <si>
+    <t>│   │       ├── TextArea.tsx</t>
+  </si>
+  <si>
+    <t>│   │       └── TextArea.test.tsx</t>
+  </si>
+  <si>
+    <t>│   │       └── TextArea.module.css</t>
+  </si>
+  <si>
+    <t>│   ├── molecules/</t>
+  </si>
+  <si>
+    <t>│   │   ├── Search/</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Search.tsx</t>
+  </si>
+  <si>
+    <t>│   │   │   └── Search.test.tsx （Searchコンポーネントの単体テスト)</t>
+  </si>
+  <si>
+    <t>│   │   └── User/</t>
+  </si>
+  <si>
+    <t>│   │       ├── User.tsx</t>
+  </si>
+  <si>
+    <t>│   │       └── User.test.tsx</t>
+  </si>
+  <si>
+    <t>～～～～～～～～～</t>
+  </si>
+  <si>
+    <t>├── utils/</t>
+  </si>
+  <si>
+    <t>│   ├── validators.ts</t>
+  </si>
+  <si>
+    <t>│   ├── validators.test.ts （ユーティリティ関数の単体テスト）</t>
+  </si>
+  <si>
+    <t>└── App.tsx</t>
+  </si>
+  <si>
+    <t>https://www.makotot.dev/posts/colocation-translation-ja</t>
+  </si>
+  <si>
+    <t>ここだけだと、srcと並列ディレクトリにtestコード作るのも変わらないのでは？と思ったのですが、個人的に以下の点でAtomic Designとの相性の良さを加味してColocation採用した方が良いと感じました。</t>
+  </si>
+  <si>
+    <t>・階層的なテストの明確化</t>
+  </si>
+  <si>
+    <t>　→　atomsなら完全に独立した単体テスト。moleculesならAtoms間の連携を含む単体・結合テストといったようにどの階層で、どのような粒度のテストを書くべきかが直感的に分かりやすくなると思います。</t>
+  </si>
+  <si>
+    <t>・関心の分離の視覚化</t>
+  </si>
+  <si>
+    <t>　→　例えば、Buttonという機能の関心事に関わる全てのファイル（コード、スタイル、テスト）が物理的にまとまっているため、Buttonの責任範囲が明確になります。</t>
+  </si>
+  <si>
+    <t>　　　他のコンポーネントのファイルが混ざらないため、関心の分離がファイルシステム上でも視覚的に実現されると考えてます。</t>
+  </si>
+  <si>
+    <t>＞新しい人（もしくは半年後の自分自身）がコードを読むとき、 すぐにそのモジュールがテストされていることを見て取れて、そのモジュールの理解の助けとしてテストのファイルを利用できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＞変更があれば、その変更に関連するテストの更新（追加 / 削除 / 修正）のリマインドとなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各コンポーネントやモジュールの隣にテストファイルを配置する「Colocation」を採用で問題ないと思います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>React Testing Libraryの作者の引用になりますが、「Colocation」を用いるメリットとして、テストコードからモジュール理解の助けになる。モジュール変更時にテストコード変更のリマインドになる等があると思います。</t>
+    <rPh sb="47" eb="48">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト方法について以下にまとめました。</t>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体、結合でやるべきこと、それぞれのテストで見るべきことなど記載しております。</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【単体テストでやること】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・各API呼び出しテスト＆APIレスポンスの型安全確認</t>
+  </si>
+  <si>
+    <t>ここは推奨されているMSWというツールを使ってみようと思います。jest.mockも試してみて、使用感などお伝えします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観点としては以下を想定してます。</t>
+  </si>
+  <si>
+    <t>観点としては以下を想定してます。</t>
+    <rPh sb="0" eb="2">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クライアントが指定された引数に基づいて、正しいURL、HTTPメソッド、ヘッダー、リクエストボディでAPIを呼び出しているか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・正しいレスポンスの値が返却されているか</t>
+    <rPh sb="1" eb="2">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーハンドリングが適切に行われているか。</t>
+    <rPh sb="11" eb="13">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エッジケースについて適切に処理されているか。</t>
+    <rPh sb="11" eb="13">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リトライ処理ができているか？（ファイルアップ時など、あれば）</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・UIデザインテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面単位でモック通りにデザインが実装されているか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボタンやフォーム等を押下した場合に正しい挙動になるか、部品単位で確認する。（モーダルが出るか、色が変わるかなどなど）</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・状態の変更によってUIが正しく更新されるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Atoms,Molecules,utils,stateのソースコードテスト（Moleculesは結合ともグレーな部分ではありますが、デザインテストにかかるので含めてます）</t>
+    <rPh sb="80" eb="81">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コンポーネントのレンダリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントが正常にレンダリングされるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Propsに応じて表示内容が正しく変化するか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件付きレンダリングが正しく機能するか（ex: isLoadingでローディング表示、データがある時にデータ表示などあれば）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・イベントハンドリング</t>
+  </si>
+  <si>
+    <t>クリック、フォーム入力などのイベントが正しく発火し、対応する関数が呼び出されるか。</t>
+  </si>
+  <si>
+    <t>イベントハンドラに渡される引数が正しいか。</t>
+  </si>
+  <si>
+    <t>・状態管理</t>
+  </si>
+  <si>
+    <t>コンポーネント内部の状態が正しく更新されるか。</t>
+  </si>
+  <si>
+    <t>・関数やロジック</t>
+  </si>
+  <si>
+    <t>コンポーネント内部で使用されるユーティリティ関数や計算ロジック等が正しい結果を返すか。</t>
+    <rPh sb="31" eb="32">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エッジケース（空のデータ、不正な入力など）が正しく処理されるか。</t>
+  </si>
+  <si>
+    <t>【結合テストでやること】</t>
+    <rPh sb="1" eb="3">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機能一覧をもとに、各機能が画面上で動作するか確認する。（異常系含む）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在、機能一覧作成していただいていると思いますが、FTP後の画面確認やログイン認証後の画面確認など機能一覧をもとにテストケースを作成</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>キノウイチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・features,pagesのソースコードテスト</t>
+  </si>
+  <si>
+    <t>・コンポーネント間の連携</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親コンポーネントから子コンポーネントへのPropsの伝播が正しく行われているか。</t>
+  </si>
+  <si>
+    <t>子コンポーネントからのイベントが親コンポーネントで正しく処理され、状態が更新されるか。</t>
+  </si>
+  <si>
+    <t>・ルーティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLパラメータが正しく処理され、それに応じたデータが表示されるか</t>
+  </si>
+  <si>
+    <t>バリデーションが正しく動作するか</t>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フォームのインタラクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数の入力フィールドを持つフォームが、入力値の検証、送信、エラー表示などを含めて正しく動作するか。</t>
+  </si>
+  <si>
+    <t>フォームの送信後に、期待されるアクション（API呼び出し、ページ遷移など）が行われるか。</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +462,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -76,8 +497,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -414,12 +838,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D17C4E-6FB7-42EB-ABEB-D6B99E5C55F1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06906B6-FA49-4E70-B537-ADBA772B8079}">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
